--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2185048.198682925</v>
+        <v>2289227.833133997</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>214.6649597713303</v>
+        <v>96.04699508553918</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -789,7 +791,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>202.6034558564588</v>
       </c>
       <c r="X4" t="n">
-        <v>158.8661859444882</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>96.32693285396861</v>
+        <v>67.94266147058794</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>35.54867826167791</v>
+        <v>166.3516656678856</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.86125478512755</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>43.00338780289219</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>38.54905110173166</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>152.4860587033416</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1528,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1581,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>112.6623392052984</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>253.7317387733423</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229382</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>25.52471385612679</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484094</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>63.8415564125923</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>98.95095262166012</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187843</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2248,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>44.30292280757591</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>113.9549918517058</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>245.879692121443</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>73.56194264363218</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>34.59690177051169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>116.4636264596503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>106.7475924760364</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>5.421623586788372</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.19827945150398</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710087</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>74.96337793488011</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>201.9261202078658</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.7122866515516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.92847288552921</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>5.890337106878037</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>71.05846343488193</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4355,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3108.772528910857</v>
+        <v>2327.726874697683</v>
       </c>
       <c r="X2" t="n">
-        <v>2735.306770649777</v>
+        <v>2327.726874697683</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
         <v>767.0908251999817</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.6287558445191</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
         <v>66.5121164321834</v>
@@ -4513,25 +4515,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438285</v>
+        <v>440.0982547706548</v>
       </c>
       <c r="V4" t="n">
-        <v>377.0996507379416</v>
+        <v>440.0982547706548</v>
       </c>
       <c r="W4" t="n">
-        <v>377.0996507379416</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="X4" t="n">
-        <v>216.6287558445191</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.6287558445191</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.883770458458</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C5" t="n">
-        <v>1775.921253518046</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D5" t="n">
-        <v>1417.655554911296</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="E5" t="n">
-        <v>1031.867302313052</v>
+        <v>557.1590183167823</v>
       </c>
       <c r="F5" t="n">
-        <v>620.8813975234441</v>
+        <v>146.1731135271747</v>
       </c>
       <c r="G5" t="n">
-        <v>205.8089473684406</v>
+        <v>135.1410674125753</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.48361052258</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4643,16 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.6287558445191</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>795.1487927558362</v>
+        <v>752.8550202950682</v>
       </c>
       <c r="U7" t="n">
-        <v>506.0459258814798</v>
+        <v>752.8550202950682</v>
       </c>
       <c r="V7" t="n">
-        <v>506.0459258814798</v>
+        <v>752.8550202950682</v>
       </c>
       <c r="W7" t="n">
-        <v>216.6287558445191</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="X7" t="n">
-        <v>216.6287558445191</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.6287558445191</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2359.600508066744</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>1969.461176090932</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403.4802848832069</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C10" t="n">
-        <v>403.4802848832069</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>253.3636454708711</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>105.450551888478</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>105.450551888478</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>766.8606838956177</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="W10" t="n">
-        <v>631.4698357812242</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="X10" t="n">
-        <v>403.4802848832069</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="Y10" t="n">
-        <v>403.4802848832069</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="11">
@@ -5060,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5118,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
-        <v>2092.798483612594</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532803</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253734</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2083.262202855953</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1794.18697620015</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1539.502487994263</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.091168225067</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.10161732705</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.30903818352</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,34 +5296,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913849</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913849</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1366.386875345991</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263533</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356264</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232907</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408976</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1098.667160263533</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>1098.667160263533</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239594</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>924.8344286397178</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913853</v>
+        <v>949.9304447718139</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345992</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1918.296605585279</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>594.8179559048574</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>446.9048623224643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>300.0149148245539</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>300.0149148245539</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>158.303083666752</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5698,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192713</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239595</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397181</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>840.841793202178</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756784</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996071</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656161</v>
+        <v>3342.537229081857</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377092</v>
+        <v>3173.60104615395</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253735</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661311</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>2561.485266376191</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218389</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.02030972914</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389148</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098133</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671692</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650994</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650994</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673935</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>4404.185983673935</v>
       </c>
       <c r="V22" t="n">
-        <v>1643.635426776347</v>
+        <v>4149.501495468048</v>
       </c>
       <c r="W22" t="n">
-        <v>1354.218256739386</v>
+        <v>3860.084325431088</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>3744.978273055627</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>3524.185693912097</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5968,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6054,40 +6056,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>3342.537229081857</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>3173.60104615395</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>3023.484406741614</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>2875.571313159221</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661311</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376191</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218389</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296626</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822165</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998105</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.02030972914</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389148</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098133</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671692</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650994</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305898</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328839</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>4221.331149328839</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>3972.967823953644</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>3972.967823953644</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>3744.978273055627</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>3524.185693912097</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1031.26032167505</v>
+        <v>3044.50749608713</v>
       </c>
       <c r="C28" t="n">
-        <v>862.324138747143</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="D28" t="n">
-        <v>712.2074993348073</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E28" t="n">
-        <v>564.2944057524141</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>417.4044582545038</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>250.2083589693837</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4655.886786973834</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>4473.031952628739</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>4253.43048765168</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>3964.355260995878</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>3964.355260995878</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>3674.938090958917</v>
       </c>
       <c r="X28" t="n">
-        <v>1433.70136564882</v>
+        <v>3446.9485400609</v>
       </c>
       <c r="Y28" t="n">
-        <v>1212.90878650529</v>
+        <v>3226.15596091737</v>
       </c>
     </row>
     <row r="29">
@@ -6458,19 +6460,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.740023695907</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>577.8620388433919</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C31" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="32">
@@ -6692,43 +6694,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P33" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356194</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>99.29305050937427</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2386.156740699954</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2203.301906354858</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1983.700441377799</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1694.625214721997</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1439.94072651611</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1150.523556479149</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>1150.523556479149</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.7309773356194</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6926,22 +6928,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6950,37 +6952,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836018</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C37" t="n">
-        <v>565.7099969556949</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D37" t="n">
-        <v>565.7099969556949</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E37" t="n">
-        <v>565.7099969556949</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>418.8200494577845</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>251.6239501726645</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1956.350136867861</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1701.665648661974</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1412.248478625013</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138415</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="38">
@@ -7151,37 +7153,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P39" t="n">
-        <v>2299.457522348532</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7354,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2425.823211978716</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,28 +7399,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7427,22 +7429,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>2772.332236394371</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>3369.710724020923</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2191.112710026075</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7637,40 +7639,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
   </sheetData>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>104.7431111219899</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>32.7912595632487</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>191.8807364711615</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.5487903941962</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>17.42427990597324</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>126.758702767377</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>207.8347205162521</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>6.257951202384959</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>66.73277020259168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>31.77834493961</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>63.36835372228703</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>111.8370608760584</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.17696725861768</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>65.33133491134375</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>84.25835418137839</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>45.44677382459246</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>211.5151132204102</v>
+        <v>111.7546635373309</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>146.3469868924063</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503017</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.327398212</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675045</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551183</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26420,25 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="F4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>15436.64000687977</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687977</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687966</v>
@@ -26448,7 +26450,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687959</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26457,7 +26459,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948263</v>
+        <v>-914494.1029948264</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327664</v>
+        <v>414250.6427327665</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327666</v>
+        <v>414250.6427327663</v>
       </c>
       <c r="E6" t="n">
-        <v>163388.3181293623</v>
+        <v>163388.3181293627</v>
       </c>
       <c r="F6" t="n">
-        <v>488800.7799367172</v>
+        <v>488800.7799367183</v>
       </c>
       <c r="G6" t="n">
+        <v>488800.7799367174</v>
+      </c>
+      <c r="H6" t="n">
         <v>488800.7799367176</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>488800.7799367176</v>
+      </c>
+      <c r="J6" t="n">
+        <v>271269.5775394402</v>
+      </c>
+      <c r="K6" t="n">
+        <v>488800.7799367179</v>
+      </c>
+      <c r="L6" t="n">
         <v>488800.7799367178</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>403745.7520012058</v>
+      </c>
+      <c r="N6" t="n">
         <v>488800.7799367175</v>
       </c>
-      <c r="J6" t="n">
-        <v>271269.5775394401</v>
-      </c>
-      <c r="K6" t="n">
-        <v>488800.7799367172</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
+        <v>488800.7799367176</v>
+      </c>
+      <c r="P6" t="n">
         <v>488800.7799367175</v>
-      </c>
-      <c r="M6" t="n">
-        <v>403745.7520012056</v>
-      </c>
-      <c r="N6" t="n">
-        <v>488800.7799367176</v>
-      </c>
-      <c r="O6" t="n">
-        <v>488800.7799367177</v>
-      </c>
-      <c r="P6" t="n">
-        <v>488800.7799367179</v>
       </c>
     </row>
   </sheetData>
@@ -26747,13 +26749,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>134.5760089460827</v>
+        <v>253.1939736318738</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27585,7 +27587,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.91954248013221</v>
       </c>
       <c r="X4" t="n">
-        <v>66.84346944454893</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>198.2808315333518</v>
+        <v>226.6651029167325</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>184.0002710144913</v>
+        <v>53.19728360828361</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>359.872586878353</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>326.7277128755769</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>127.4767571572966</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28064,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>67.06289057282763</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28494,7 +28496,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-4.69252986170444e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28570,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30049,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -31838,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>677.7372574190235</v>
       </c>
       <c r="P15" t="n">
-        <v>230.9747494877451</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>167.4835451665598</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32464,37 +32466,37 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067244</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32503,7 +32505,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,40 +32542,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>528.7932908500045</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>436.4492970000084</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742437</v>
@@ -32625,7 +32627,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
@@ -32640,13 +32642,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>716.7180553432695</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>200.4500263280939</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860823</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q30" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q33" t="n">
-        <v>248.3870916262918</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663277</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33968,10 +33970,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33983,16 +33985,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>359.1374415194863</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34205,31 +34207,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>196.3041720118992</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>764.2478901092629</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,19 +34444,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34463,7 +34465,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>399.4395445221152</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>535.1410129745791</v>
       </c>
       <c r="P15" t="n">
-        <v>97.00034207341486</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>25.34951124454152</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236318484</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>386.6592569279861</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>302.4748895856782</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899073</v>
@@ -36294,7 +36296,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998983</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>574.5840214212511</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>66.47561891376371</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640639</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q33" t="n">
-        <v>108.4053175402703</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>219.1556674334648</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>57.74979223202499</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>632.9061780259296</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38111,7 +38113,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>265.4651371077849</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2289227.833133997</v>
+        <v>2285215.223120004</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>96.04699508553918</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>77.80777884202432</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6034558564588</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>386.5280461485668</v>
       </c>
       <c r="H5" t="n">
-        <v>67.94266147058794</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1028,7 +1028,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U6" t="n">
         <v>225.7871683969286</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>166.3516656678856</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>151.6659239708416</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>43.00338780289219</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>54.30305803407897</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>152.4860587033416</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>112.6623392052984</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>110.144409574806</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229382</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>45.16086499484094</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X19" t="n">
-        <v>98.95095262166012</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187843</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>113.9549918517058</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>245.879692121443</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>60.25690685266579</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59690177051169</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.7475924760364</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H34" t="n">
-        <v>5.421623586788372</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>201.9261202078658</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>166.5451136812779</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.92847288552921</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>105.6507867899574</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>71.05846343488193</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2327.726874697683</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2327.726874697683</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2327.726874697683</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4397,52 +4397,52 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>438.2129667142808</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>438.2129667142808</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>438.2129667142808</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>438.2129667142808</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>291.3230192163704</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>291.3230192163704</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>145.1058324342282</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>440.0982547706548</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>440.0982547706548</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W4" t="n">
-        <v>235.4482993600903</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="X4" t="n">
-        <v>235.4482993600903</v>
+        <v>438.2129667142808</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.4482993600903</v>
+        <v>438.2129667142808</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855438</v>
+        <v>1980.946859214235</v>
       </c>
       <c r="C5" t="n">
-        <v>942.9472709150266</v>
+        <v>1611.984342273823</v>
       </c>
       <c r="D5" t="n">
-        <v>942.9472709150266</v>
+        <v>1253.718643667072</v>
       </c>
       <c r="E5" t="n">
-        <v>557.1590183167823</v>
+        <v>867.9303910688282</v>
       </c>
       <c r="F5" t="n">
-        <v>146.1731135271747</v>
+        <v>456.9444862792206</v>
       </c>
       <c r="G5" t="n">
-        <v>135.1410674125753</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>2367.546699278356</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>752.8550202950682</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>752.8550202950682</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>752.8550202950682</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>463.4378502581077</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>235.4482993600903</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.4482993600903</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1582.86133602681</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4822,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3062.117250135415</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3062.117250135415</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2731.054362791845</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="X8" t="n">
-        <v>2359.600508066744</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1969.461176090932</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7578170212613</v>
+        <v>438.2129667142804</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>269.2767837863735</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>269.2767837863735</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>121.3636902039804</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>121.3636902039804</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>121.3636902039804</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>121.3636902039804</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>766.8606838956177</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>477.7578170212613</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>477.7578170212613</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W10" t="n">
-        <v>477.7578170212613</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="X10" t="n">
-        <v>477.7578170212613</v>
+        <v>438.2129667142804</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.7578170212613</v>
+        <v>438.2129667142804</v>
       </c>
     </row>
     <row r="11">
@@ -5032,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.6442739835331</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>2083.262202855953</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1794.18697620015</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1539.502487994263</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W13" t="n">
-        <v>1250.085317957303</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1250.085317957303</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.292738813773</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756264</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913849</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913849</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345991</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232907</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408976</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.667160263533</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263533</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273895</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239594</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397178</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718139</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356194</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429802</v>
@@ -5670,55 +5670,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1111.379442165859</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192713</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756264</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756264</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.841793202178</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756784</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996071</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081857</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.60104615395</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741615</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661311</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218389</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650994</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650994</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673935</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4404.185983673935</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4149.501495468048</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3860.084325431088</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055627</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912097</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6056,16 +6056,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,16 +6077,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081857</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.60104615395</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741614</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159221</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661311</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376191</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218389</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650994</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305898</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328839</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4221.331149328839</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3972.967823953644</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3972.967823953644</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3744.978273055627</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912097</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6314,16 +6314,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3044.50749608713</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>2875.571313159223</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159223</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4655.886786973834</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4473.031952628739</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4253.43048765168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3964.355260995878</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3964.355260995878</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>3674.938090958917</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>3446.9485400609</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>3226.15596091737</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768874</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E34" t="n">
-        <v>266.4891497944943</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F34" t="n">
-        <v>266.4891497944943</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G34" t="n">
-        <v>99.29305050937427</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,43 +6943,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.8178837532263</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.350136867861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1701.665648661974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.248478625013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1184.258927726996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.466348583466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2495.978408795859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.7594328861248</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C40" t="n">
-        <v>390.823249958218</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>240.7066105458823</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2425.823211978716</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2242.968377633621</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2023.366912656562</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.29168600076</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1479.607197794873</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W40" t="n">
-        <v>1190.190027757912</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X40" t="n">
-        <v>962.2004768598947</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y40" t="n">
-        <v>741.4078977163646</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2772.332236394371</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3369.710724020923</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3997.30868757553</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.30868757553</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,61 +7545,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2273.199413378161</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
         <v>2273.199413378161</v>
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811332</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532263</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2125.286319795768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1870.601831589881</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.18466155292</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>104.7431111219899</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>176.378588761785</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.5487903941962</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X19" t="n">
-        <v>126.758702767377</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>6.257951202384959</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>31.77834493961</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>111.8370608760584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H34" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>84.25835418137839</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>13.28686650065944</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>45.44677382459246</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>111.7546635373309</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>146.3469868924063</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821785.2548503017</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.949767504</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675047</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405252</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405254</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93596.74410405252</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26432,16 +26432,16 @@
         <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687977</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687977</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26450,7 +26450,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948264</v>
+        <v>-914494.1029948262</v>
       </c>
       <c r="C6" t="n">
         <v>414250.6427327665</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327663</v>
+        <v>414250.6427327672</v>
       </c>
       <c r="E6" t="n">
-        <v>163388.3181293627</v>
+        <v>163040.9388750049</v>
       </c>
       <c r="F6" t="n">
-        <v>488800.7799367183</v>
+        <v>488453.4006823608</v>
       </c>
       <c r="G6" t="n">
-        <v>488800.7799367174</v>
+        <v>488453.4006823605</v>
       </c>
       <c r="H6" t="n">
-        <v>488800.7799367176</v>
+        <v>488453.4006823604</v>
       </c>
       <c r="I6" t="n">
-        <v>488800.7799367176</v>
+        <v>488453.4006823604</v>
       </c>
       <c r="J6" t="n">
-        <v>271269.5775394402</v>
+        <v>270922.1982850826</v>
       </c>
       <c r="K6" t="n">
-        <v>488800.7799367179</v>
+        <v>488453.4006823609</v>
       </c>
       <c r="L6" t="n">
-        <v>488800.7799367178</v>
+        <v>488453.4006823603</v>
       </c>
       <c r="M6" t="n">
-        <v>403745.7520012058</v>
+        <v>403398.3727468484</v>
       </c>
       <c r="N6" t="n">
-        <v>488800.7799367175</v>
+        <v>488453.4006823605</v>
       </c>
       <c r="O6" t="n">
-        <v>488800.7799367176</v>
+        <v>488453.4006823605</v>
       </c>
       <c r="P6" t="n">
-        <v>488800.7799367175</v>
+        <v>488453.4006823603</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>307.2767095024427</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>253.1939736318738</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>18.54464156781377</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.91954248013221</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>24.39367950488668</v>
       </c>
       <c r="H5" t="n">
-        <v>226.6651029167325</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27827,7 +27827,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>53.19728360828361</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>52.25204616877852</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>326.7277128755769</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>42.04936237575915</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>67.06289057282763</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28496,7 +28496,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.69252986170444e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868568</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>213.3000196296242</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>677.7372574190235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>167.4835451665598</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067244</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>436.4492970000084</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>200.4500263280939</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>208.6096528357818</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>213.3000196296242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33894,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>160.6314956130953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>196.3041720118992</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648384</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>79.325612215294</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>535.1410129745791</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>25.34951124454152</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318484</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>302.4748895856782</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>66.47561891376371</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>66.47561891376348</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>79.325612215294</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.64972152707382</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>57.74979223202499</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285215.223120004</v>
+        <v>2286975.753422788</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.4571321610379</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145784</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969292</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>107.5003107098663</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>77.80777884202432</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>261.7337600035963</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>386.5280461485668</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
         <v>225.7871683969286</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>40.12741312164837</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>151.6659239708416</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>23.38964045759809</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>54.30305803407897</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1426,13 +1426,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>135.3120514073172</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>110.144409574806</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161915776</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2134,13 +2134,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
-        <v>60.25690685266579</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428168</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.5451136812779</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>44.7513807668926</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4397,28 +4397,28 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4430,7 +4430,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125857</v>
@@ -4439,7 +4439,7 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.2129667142808</v>
+        <v>472.104875776638</v>
       </c>
       <c r="C4" t="n">
-        <v>438.2129667142808</v>
+        <v>472.104875776638</v>
       </c>
       <c r="D4" t="n">
-        <v>438.2129667142808</v>
+        <v>321.9882363643022</v>
       </c>
       <c r="E4" t="n">
-        <v>438.2129667142808</v>
+        <v>321.9882363643022</v>
       </c>
       <c r="F4" t="n">
-        <v>291.3230192163704</v>
+        <v>175.0982888663919</v>
       </c>
       <c r="G4" t="n">
-        <v>291.3230192163704</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>145.1058324342282</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>666.2025176122982</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>666.2025176122982</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>438.2129667142808</v>
+        <v>692.8974549201681</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.2129667142808</v>
+        <v>472.104875776638</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1980.946859214235</v>
+        <v>2240.582457090721</v>
       </c>
       <c r="C5" t="n">
-        <v>1611.984342273823</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1253.718643667072</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>867.9303910688282</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>456.9444862792206</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.546699278356</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="Y5" t="n">
-        <v>2367.546699278356</v>
+        <v>2240.582457090721</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,40 +4652,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1238.03887196831</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>869.0763550278987</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>510.8106564211482</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>125.0224038229039</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>118.0769030737004</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>107.044856959101</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>107.044856959101</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3062.117250135415</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3062.117250135415</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V8" t="n">
-        <v>2731.054362791845</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W8" t="n">
-        <v>2378.28570752173</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2014.778044008244</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1624.638712032432</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.2129667142804</v>
+        <v>700.0944266746553</v>
       </c>
       <c r="C10" t="n">
-        <v>269.2767837863735</v>
+        <v>531.1582437467484</v>
       </c>
       <c r="D10" t="n">
-        <v>269.2767837863735</v>
+        <v>531.1582437467484</v>
       </c>
       <c r="E10" t="n">
-        <v>121.3636902039804</v>
+        <v>383.2451501643553</v>
       </c>
       <c r="F10" t="n">
-        <v>121.3636902039804</v>
+        <v>236.355202666445</v>
       </c>
       <c r="G10" t="n">
-        <v>121.3636902039804</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>121.3636902039804</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>666.2025176122977</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>666.2025176122977</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>438.2129667142804</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.2129667142804</v>
+        <v>700.0944266746553</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192611</v>
@@ -5044,13 +5044,13 @@
         <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5062,22 +5062,22 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687887</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845476</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5211,40 +5211,40 @@
         <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2243.238540027296</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855605</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199803</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993916</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="14">
@@ -5257,28 +5257,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5503,64 +5503,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,19 +5767,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,22 +5971,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6226,7 +6226,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>301.5721730233224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>154.6822255254121</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.192580311172</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7031,13 +7031,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7156,22 +7156,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7198,25 +7198,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2401.759668664207</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>45.71423459432739</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>176.378588761785</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>65.54986409393007</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
-        <v>105.2672314396031</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393068</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.28686650065944</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>136.274905234752</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.327398212</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982123</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982123</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982127</v>
-      </c>
       <c r="E2" t="n">
+        <v>605359.9497675048</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="G2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675041</v>
@@ -26337,25 +26337,25 @@
         <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675047</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="F4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26453,7 +26453,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948262</v>
+        <v>-914494.1029948269</v>
       </c>
       <c r="C6" t="n">
+        <v>414250.6427327666</v>
+      </c>
+      <c r="D6" t="n">
         <v>414250.6427327665</v>
       </c>
-      <c r="D6" t="n">
-        <v>414250.6427327672</v>
-      </c>
       <c r="E6" t="n">
-        <v>163040.9388750049</v>
+        <v>163353.580203927</v>
       </c>
       <c r="F6" t="n">
-        <v>488453.4006823608</v>
+        <v>488766.0420112818</v>
       </c>
       <c r="G6" t="n">
-        <v>488453.4006823605</v>
+        <v>488766.0420112819</v>
       </c>
       <c r="H6" t="n">
-        <v>488453.4006823604</v>
+        <v>488766.0420112816</v>
       </c>
       <c r="I6" t="n">
-        <v>488453.4006823604</v>
+        <v>488766.0420112816</v>
       </c>
       <c r="J6" t="n">
-        <v>270922.1982850826</v>
+        <v>271234.839614004</v>
       </c>
       <c r="K6" t="n">
-        <v>488453.4006823609</v>
+        <v>488766.0420112816</v>
       </c>
       <c r="L6" t="n">
-        <v>488453.4006823603</v>
+        <v>488766.0420112818</v>
       </c>
       <c r="M6" t="n">
-        <v>403398.3727468484</v>
+        <v>403711.0140757697</v>
       </c>
       <c r="N6" t="n">
-        <v>488453.4006823605</v>
+        <v>488766.0420112816</v>
       </c>
       <c r="O6" t="n">
-        <v>488453.4006823605</v>
+        <v>488766.0420112815</v>
       </c>
       <c r="P6" t="n">
-        <v>488453.4006823603</v>
+        <v>488766.0420112822</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024427</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>111.4435131414752</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>58.5254975491619</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>18.54464156781377</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>103.5391317674113</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>24.39367950488668</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351641</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>1.449516651277548</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>52.25204616877852</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>142.6361678014301</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>42.04936237575915</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-3.348081657766396e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>303.402437346475</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868568</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.6544928674244</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>246.2467565146294</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -33180,10 +33180,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34386,13 +34386,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>165.560998372116</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648384</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899109</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>108.4053175402704</v>
+        <v>35.97859357997564</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36828,10 +36828,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
